--- a/biology/Botanique/Sigesbeckia_orientalis/Sigesbeckia_orientalis.xlsx
+++ b/biology/Botanique/Sigesbeckia_orientalis/Sigesbeckia_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sigesbeckia orientalis est une espèce de plantes à fleurs de la grande famille des Asteraceae ou 'Compositae (Astéracées ou Composées)
 C'est une plante herbacée. De par son nom, il semble qu'elle soit d'origine asiatique.
@@ -512,13 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sigesbeckia orientalis L. est le nom donné par Carl von Linné.
 Synonymes : Sigesbeckia serrata DC., Sigesbeckia jorullensis H.B.K.
-Noms vernaculaires
-Colle-Colle, Guérit-vite, Souveraine, Herbe-grasse [2]. Ainsi qu'herbe divine, col-col, herbe colle-colle, herbe Saint-Paul et en anglais Common St. Paul’s Wort, Indian Weed[3],[4].
-Les appellations sont diverses et variées : herbe de Flacq à l'Ile Maurice, tandis qu'à La Réunion elle est plus connue sous les appellations d'herbe Saint-Paul, col-col ou herbe colle-colle.
 </t>
         </is>
       </c>
@@ -544,13 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La hauteur de cette herbe varie de 0,30 cm à 0,60 m. Sa racine est pivotante et cylindrique ; ses tiges sont rougeâtres, rudes au toucher, et velues. Ses feuilles triangulaires sont dentées et veloutées. Les fleurs de couleur jaune clair à tendance rougeâtre, sont petites et composées.
-Sigesbeckia orientalis est une espèce zoochore, ce qui signifie que ses semences s'accrochent aux vêtements, à la toison des animaux... comme de la glu. C'est d'ailleurs pour cette raison qu'on la surnomme, à La Réunion notamment, « Herbe colle-colle ».
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colle-Colle, Guérit-vite, Souveraine, Herbe-grasse . Ainsi qu'herbe divine, col-col, herbe colle-colle, herbe Saint-Paul et en anglais Common St. Paul’s Wort, Indian Weed,.
+Les appellations sont diverses et variées : herbe de Flacq à l'Ile Maurice, tandis qu'à La Réunion elle est plus connue sous les appellations d'herbe Saint-Paul, col-col ou herbe colle-colle.
 </t>
         </is>
       </c>
@@ -576,10 +593,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hauteur de cette herbe varie de 0,30 cm à 0,60 m. Sa racine est pivotante et cylindrique ; ses tiges sont rougeâtres, rudes au toucher, et velues. Ses feuilles triangulaires sont dentées et veloutées. Les fleurs de couleur jaune clair à tendance rougeâtre, sont petites et composées.
+Sigesbeckia orientalis est une espèce zoochore, ce qui signifie que ses semences s'accrochent aux vêtements, à la toison des animaux... comme de la glu. C'est d'ailleurs pour cette raison qu'on la surnomme, à La Réunion notamment, « Herbe colle-colle ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sigesbeckia_orientalis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sigesbeckia_orientalis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Culture / Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'abord introduit à l'île de la Réunion, Sigesbeckia orientalis s'est peu à peu naturalisé.
 On le trouve un peu partout sur les bords des chemins et les sols riches en humus.
@@ -589,31 +642,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Sigesbeckia_orientalis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sigesbeckia_orientalis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmacopée française n'a pas réglementé le statut de cette plante. La pharmacopée chinoise la considère même comme une plante  légèrement toxique[réf. nécessaire]. Pourtant, il s'agit aux dires de certains d'une plante médicinale aux propriétés reconnues scientifiquement :
 anti-inflammatoire ;
